--- a/doc/log/log_201608040128-liuyuqin.xlsx
+++ b/doc/log/log_201608040128-liuyuqin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -86,11 +86,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>就真order错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纠正错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00--22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠正order错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建类成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,16 +531,49 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
